--- a/Formato_VisaNuevo/Equivalencias.xlsx
+++ b/Formato_VisaNuevo/Equivalencias.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14930" windowHeight="3870" tabRatio="202"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14930" windowHeight="3870" tabRatio="202" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credito" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="510">
   <si>
     <t>Nombre local del producto</t>
   </si>
@@ -1420,17 +1420,152 @@
     <t xml:space="preserve">Total Number of Cards </t>
   </si>
   <si>
-    <t>Nombre nuevo del producto</t>
-  </si>
-  <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Nombre antiguo del producto</t>
+  </si>
+  <si>
+    <t>Visa Debit Business</t>
+  </si>
+  <si>
+    <t>Visa Debit Classic</t>
+  </si>
+  <si>
+    <t>Total Number of Personal Deposit Accounts</t>
+  </si>
+  <si>
+    <t>Number of Savings Accounts</t>
+  </si>
+  <si>
+    <t>Number of Regular Checkings Accounts</t>
+  </si>
+  <si>
+    <t>Visa Prepaid Classic Consumer Gift</t>
+  </si>
+  <si>
+    <t>Total Product Balance - Volume</t>
+  </si>
+  <si>
+    <t>Unemboseed Visa Classic Debit</t>
+  </si>
+  <si>
+    <t>Sales Year Quarter</t>
+  </si>
+  <si>
+    <t>Business Id</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Product Id</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Number of Active Accounts</t>
+  </si>
+  <si>
+    <t>Number of Accounts Accessed</t>
+  </si>
+  <si>
+    <t>Regular Checking Account offered</t>
+  </si>
+  <si>
+    <t>Special Checking Account offered</t>
+  </si>
+  <si>
+    <t>Savings Account offered</t>
+  </si>
+  <si>
+    <t>Other Accounts offered</t>
+  </si>
+  <si>
+    <t>Posting Method</t>
+  </si>
+  <si>
+    <t>Number of Charge-Offs transaction</t>
+  </si>
+  <si>
+    <t>Gross Charge-Offs</t>
+  </si>
+  <si>
+    <t>Recovered Charge-Offs</t>
+  </si>
+  <si>
+    <t>Cards with POS activity (#)</t>
+  </si>
+  <si>
+    <t>Cards with ATM activity (#)</t>
+  </si>
+  <si>
+    <t>POS transactions decline - Insufficient funds (#)</t>
+  </si>
+  <si>
+    <t>POS transactions decline - pick-up (#)</t>
+  </si>
+  <si>
+    <t>POS transactions decline - other reasons (#)</t>
+  </si>
+  <si>
+    <t>ATM transactions decline - Insufficient funds (#)</t>
+  </si>
+  <si>
+    <t>ATM transactions decline - pick-up (#)</t>
+  </si>
+  <si>
+    <t>ATM transactions decline - other reasons (#)</t>
+  </si>
+  <si>
+    <t>Number of cards receiving Remittances(#)</t>
+  </si>
+  <si>
+    <t>Number of Remittances Received (#)</t>
+  </si>
+  <si>
+    <t>Amount of Remittances Received(LC)</t>
+  </si>
+  <si>
+    <t>Number of cards "Debit Companion"(#)</t>
+  </si>
+  <si>
+    <t>Number of Accounts "Debit Companion"(#)</t>
+  </si>
+  <si>
+    <t>Number of Regular Checking Accounts</t>
+  </si>
+  <si>
+    <t>Consumer Gift</t>
+  </si>
+  <si>
+    <t>Number of Accounts - International Classic with Visa Flag</t>
+  </si>
+  <si>
+    <t>Prepaid Cardholders Balance (LC)</t>
+  </si>
+  <si>
+    <t>Number of Accounts - International without Visa Flag(#)</t>
+  </si>
+  <si>
+    <t>Loads(#)</t>
+  </si>
+  <si>
+    <t>Loads(LC)</t>
+  </si>
+  <si>
+    <t>Refunds, Fees charged to Balance &amp; Breakage(#)</t>
+  </si>
+  <si>
+    <t>Refunds, Fees charged to Balance &amp; Breakage(LC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,8 +1612,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,6 +1661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1819,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1766,6 +1923,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,6 +1962,368 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2392680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="207011"/>
+          <a:ext cx="2392680" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2048,11 +2589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:C94"/>
+    <sheetView topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,10 +2619,10 @@
         <v>461</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -2108,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>458</v>
       </c>
@@ -2142,7 +2683,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -2176,7 +2717,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -2210,7 +2751,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +2785,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2819,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +3069,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
@@ -2564,7 +3105,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +3141,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
@@ -2636,7 +3177,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
@@ -2672,7 +3213,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +3249,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
@@ -2744,7 +3285,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +3319,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +3353,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
@@ -2846,7 +3387,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
@@ -2880,7 +3421,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +3455,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +3489,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
@@ -2982,7 +3523,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -3016,7 +3557,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
@@ -3050,7 +3591,7 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
@@ -3084,7 +3625,7 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
@@ -3118,7 +3659,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3693,7 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>182</v>
       </c>
@@ -3188,7 +3729,7 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -3224,7 +3765,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -3260,7 +3801,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -3296,7 +3837,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
@@ -3332,7 +3873,7 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
@@ -3368,7 +3909,7 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>181</v>
       </c>
@@ -3402,7 +3943,7 @@
       </c>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -3436,7 +3977,7 @@
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +4011,7 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +4045,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -3538,7 +4079,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -3572,7 +4113,7 @@
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -3608,7 +4149,7 @@
       </c>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -3644,7 +4185,7 @@
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -3680,7 +4221,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -3716,7 +4257,7 @@
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -3752,7 +4293,7 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -3788,7 +4329,7 @@
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -3824,7 +4365,7 @@
       </c>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -3860,7 +4401,7 @@
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -3896,7 +4437,7 @@
       </c>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -3932,7 +4473,7 @@
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -3968,7 +4509,7 @@
       </c>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -4004,7 +4545,7 @@
       </c>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>459</v>
       </c>
@@ -4038,7 +4579,7 @@
       </c>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -4072,7 +4613,7 @@
       </c>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
@@ -4106,7 +4647,7 @@
       </c>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
@@ -4140,7 +4681,7 @@
       </c>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -4174,7 +4715,7 @@
       </c>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
@@ -4208,7 +4749,7 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>65</v>
       </c>
@@ -4244,7 +4785,7 @@
       </c>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>66</v>
       </c>
@@ -4280,7 +4821,7 @@
       </c>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>67</v>
       </c>
@@ -4316,7 +4857,7 @@
       </c>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>68</v>
       </c>
@@ -4352,7 +4893,7 @@
       </c>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>69</v>
       </c>
@@ -4388,7 +4929,7 @@
       </c>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>70</v>
       </c>
@@ -4460,7 +5001,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
@@ -4494,7 +5035,7 @@
       </c>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>73</v>
       </c>
@@ -4528,7 +5069,7 @@
       </c>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
@@ -4562,7 +5103,7 @@
       </c>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>75</v>
       </c>
@@ -4596,7 +5137,7 @@
       </c>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
@@ -4630,7 +5171,7 @@
       </c>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
@@ -4700,7 +5241,7 @@
       </c>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
@@ -4734,7 +5275,7 @@
       </c>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="11" t="s">
         <v>80</v>
       </c>
@@ -4842,7 +5383,7 @@
       </c>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
@@ -4878,7 +5419,7 @@
       </c>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>84</v>
       </c>
@@ -4914,7 +5455,7 @@
       </c>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
@@ -4986,7 +5527,7 @@
       </c>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
         <v>87</v>
       </c>
@@ -5452,7 +5993,7 @@
       </c>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>100</v>
       </c>
@@ -5486,7 +6027,7 @@
       </c>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="11" t="s">
         <v>101</v>
       </c>
@@ -5522,7 +6063,7 @@
       </c>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="11" t="s">
         <v>102</v>
       </c>
@@ -5558,7 +6099,7 @@
       </c>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="11" t="s">
         <v>103</v>
       </c>
@@ -5592,7 +6133,7 @@
       </c>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>104</v>
       </c>
@@ -5626,7 +6167,7 @@
       </c>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="11" t="s">
         <v>105</v>
       </c>
@@ -5642,7 +6183,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="11" t="s">
         <v>106</v>
       </c>
@@ -5658,7 +6199,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="11" t="s">
         <v>107</v>
       </c>
@@ -5674,7 +6215,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="11" t="s">
         <v>108</v>
       </c>
@@ -5690,7 +6231,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="11" t="s">
         <v>109</v>
       </c>
@@ -5706,7 +6247,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="11" t="s">
         <v>110</v>
       </c>
@@ -5722,7 +6263,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="11" t="s">
         <v>111</v>
       </c>
@@ -5738,7 +6279,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11" t="s">
         <v>112</v>
       </c>
@@ -5754,7 +6295,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="11" t="s">
         <v>113</v>
       </c>
@@ -5770,7 +6311,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="11" t="s">
         <v>114</v>
       </c>
@@ -5786,7 +6327,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="11" t="s">
         <v>115</v>
       </c>
@@ -5802,7 +6343,7 @@
       <c r="K112" s="4"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="11" t="s">
         <v>116</v>
       </c>
@@ -5818,7 +6359,7 @@
       <c r="K113" s="4"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="11" t="s">
         <v>117</v>
       </c>
@@ -5834,7 +6375,7 @@
       <c r="K114" s="4"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="11" t="s">
         <v>118</v>
       </c>
@@ -5850,7 +6391,7 @@
       <c r="K115" s="4"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="11" t="s">
         <v>119</v>
       </c>
@@ -5866,7 +6407,7 @@
       <c r="K116" s="4"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="11" t="s">
         <v>120</v>
       </c>
@@ -5882,7 +6423,7 @@
       <c r="K117" s="4"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="11" t="s">
         <v>121</v>
       </c>
@@ -5898,7 +6439,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="11" t="s">
         <v>122</v>
       </c>
@@ -5914,7 +6455,7 @@
       <c r="K119" s="4"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="11" t="s">
         <v>123</v>
       </c>
@@ -5930,7 +6471,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="11" t="s">
         <v>124</v>
       </c>
@@ -5946,7 +6487,7 @@
       <c r="K121" s="4"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="11" t="s">
         <v>125</v>
       </c>
@@ -5962,7 +6503,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="11" t="s">
         <v>126</v>
       </c>
@@ -5978,7 +6519,7 @@
       <c r="K123" s="4"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="11" t="s">
         <v>127</v>
       </c>
@@ -5994,7 +6535,7 @@
       <c r="K124" s="4"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="11" t="s">
         <v>128</v>
       </c>
@@ -6010,7 +6551,7 @@
       <c r="K125" s="4"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="11" t="s">
         <v>129</v>
       </c>
@@ -6026,7 +6567,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="11" t="s">
         <v>130</v>
       </c>
@@ -6042,7 +6583,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="11" t="s">
         <v>131</v>
       </c>
@@ -6058,7 +6599,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="11" t="s">
         <v>132</v>
       </c>
@@ -6074,7 +6615,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="11" t="s">
         <v>133</v>
       </c>
@@ -6090,7 +6631,7 @@
       <c r="K130" s="4"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="11" t="s">
         <v>134</v>
       </c>
@@ -6106,7 +6647,7 @@
       <c r="K131" s="4"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="11" t="s">
         <v>135</v>
       </c>
@@ -6122,7 +6663,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="11" t="s">
         <v>136</v>
       </c>
@@ -6138,7 +6679,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="11" t="s">
         <v>137</v>
       </c>
@@ -6154,7 +6695,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="11" t="s">
         <v>138</v>
       </c>
@@ -6170,7 +6711,7 @@
       <c r="K135" s="4"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="11" t="s">
         <v>139</v>
       </c>
@@ -6186,7 +6727,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="11" t="s">
         <v>140</v>
       </c>
@@ -6202,7 +6743,7 @@
       <c r="K137" s="4"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="11" t="s">
         <v>141</v>
       </c>
@@ -6218,7 +6759,7 @@
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="11" t="s">
         <v>142</v>
       </c>
@@ -6234,7 +6775,7 @@
       <c r="K139" s="4"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="11" t="s">
         <v>143</v>
       </c>
@@ -6250,7 +6791,7 @@
       <c r="K140" s="4"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="11" t="s">
         <v>144</v>
       </c>
@@ -6266,7 +6807,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="11" t="s">
         <v>145</v>
       </c>
@@ -6282,7 +6823,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="11" t="s">
         <v>146</v>
       </c>
@@ -6298,7 +6839,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="11" t="s">
         <v>147</v>
       </c>
@@ -6314,7 +6855,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="11" t="s">
         <v>148</v>
       </c>
@@ -6330,7 +6871,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="11" t="s">
         <v>149</v>
       </c>
@@ -6346,7 +6887,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="11" t="s">
         <v>150</v>
       </c>
@@ -6362,7 +6903,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="11" t="s">
         <v>151</v>
       </c>
@@ -6378,7 +6919,7 @@
       <c r="K148" s="4"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="11" t="s">
         <v>152</v>
       </c>
@@ -6394,7 +6935,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="11" t="s">
         <v>153</v>
       </c>
@@ -6410,7 +6951,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="11" t="s">
         <v>154</v>
       </c>
@@ -6426,7 +6967,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="11" t="s">
         <v>155</v>
       </c>
@@ -6442,7 +6983,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="11" t="s">
         <v>156</v>
       </c>
@@ -6458,7 +6999,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="11" t="s">
         <v>157</v>
       </c>
@@ -6474,7 +7015,7 @@
       <c r="K154" s="4"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="11" t="s">
         <v>158</v>
       </c>
@@ -6490,7 +7031,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="11" t="s">
         <v>159</v>
       </c>
@@ -6506,7 +7047,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="11" t="s">
         <v>160</v>
       </c>
@@ -6522,7 +7063,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="11" t="s">
         <v>161</v>
       </c>
@@ -6538,7 +7079,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="11" t="s">
         <v>162</v>
       </c>
@@ -6554,7 +7095,7 @@
       <c r="K159" s="4"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="11" t="s">
         <v>163</v>
       </c>
@@ -6570,7 +7111,7 @@
       <c r="K160" s="4"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="11" t="s">
         <v>164</v>
       </c>
@@ -6586,7 +7127,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="11" t="s">
         <v>165</v>
       </c>
@@ -6602,7 +7143,7 @@
       <c r="K162" s="4"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="11" t="s">
         <v>166</v>
       </c>
@@ -6618,7 +7159,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="11" t="s">
         <v>167</v>
       </c>
@@ -6634,7 +7175,7 @@
       <c r="K164" s="4"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="11" t="s">
         <v>168</v>
       </c>
@@ -6650,7 +7191,7 @@
       <c r="K165" s="4"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="11" t="s">
         <v>169</v>
       </c>
@@ -6666,7 +7207,7 @@
       <c r="K166" s="4"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="11" t="s">
         <v>170</v>
       </c>
@@ -6682,7 +7223,7 @@
       <c r="K167" s="4"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="11" t="s">
         <v>171</v>
       </c>
@@ -6698,7 +7239,7 @@
       <c r="K168" s="4"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="11" t="s">
         <v>172</v>
       </c>
@@ -6714,7 +7255,7 @@
       <c r="K169" s="4"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="11" t="s">
         <v>173</v>
       </c>
@@ -6730,7 +7271,7 @@
       <c r="K170" s="4"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="11" t="s">
         <v>174</v>
       </c>
@@ -6746,7 +7287,7 @@
       <c r="K171" s="4"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="11" t="s">
         <v>175</v>
       </c>
@@ -6762,7 +7303,7 @@
       <c r="K172" s="4"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="11" t="s">
         <v>176</v>
       </c>
@@ -6778,7 +7319,7 @@
       <c r="K173" s="4"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="11" t="s">
         <v>177</v>
       </c>
@@ -6794,7 +7335,7 @@
       <c r="K174" s="4"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="11" t="s">
         <v>178</v>
       </c>
@@ -6810,7 +7351,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="11" t="s">
         <v>179</v>
       </c>
@@ -6826,7 +7367,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="11" t="s">
         <v>180</v>
       </c>
@@ -6855,13 +7396,6 @@
       <c r="L178" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L177">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Eliminate"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6869,29 +7403,3000 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52" style="42" customWidth="1"/>
+    <col min="2" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="46"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="C70" s="46"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" s="46"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="46"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" s="46"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" s="46"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C103" s="46"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="C104" s="46"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C108" s="46"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="46"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="44"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="44"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="44"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="44"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="44"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="44"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="44"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="44"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="44"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="44"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="44"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" s="44"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="44"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="44"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="44"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C49" s="44"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="44"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="44"/>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="44"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="44"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" s="44"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="44"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="44"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="44"/>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="44"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="44"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="44"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="44"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" s="44"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="C70" s="44"/>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="44"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="44"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C73" s="44"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" s="44"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="44"/>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="44"/>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" s="44"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" s="44"/>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="44"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C84" s="44"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="44"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C86" s="44"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C87" s="44"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C88" s="44"/>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" s="44"/>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" s="44"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="C95" s="44"/>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="44"/>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C99" s="44"/>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C100" s="44"/>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="C101" s="44"/>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="C104" s="44"/>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="C105" s="44"/>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="46"/>
+      <c r="C106" s="44"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="46"/>
+      <c r="C107" s="44"/>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="46"/>
+      <c r="C108" s="44"/>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="44"/>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="44"/>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="44"/>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="46"/>
+      <c r="C112" s="44"/>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="44"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="46"/>
+      <c r="C114" s="44"/>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="46"/>
+      <c r="C115" s="44"/>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B116" s="46"/>
+      <c r="C116" s="44"/>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B117" s="46"/>
+      <c r="C117" s="44"/>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="46"/>
+      <c r="C118" s="44"/>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="46"/>
+      <c r="C119" s="44"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="46"/>
+      <c r="C120" s="44"/>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="44"/>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="46"/>
+      <c r="C122" s="44"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="46"/>
+      <c r="C123" s="44"/>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="46"/>
+      <c r="C124" s="44"/>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="46"/>
+      <c r="C125" s="44"/>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="46"/>
+      <c r="C126" s="44"/>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="46"/>
+      <c r="C127" s="44"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" s="46"/>
+      <c r="C128" s="44"/>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="46"/>
+      <c r="C129" s="44"/>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="44"/>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="46"/>
+      <c r="C131" s="44"/>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="46"/>
+      <c r="C132" s="44"/>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="46"/>
+      <c r="C133" s="44"/>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="46"/>
+      <c r="C134" s="44"/>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="46"/>
+      <c r="C135" s="44"/>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" s="44"/>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" s="44"/>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C138" s="44"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="44"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="44"/>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="44"/>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="44"/>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="44"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C144" s="44"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" s="44"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" s="44"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="44"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" s="44"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="44"/>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C150" s="44"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="44"/>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C152" s="44"/>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C153" s="44"/>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" s="44"/>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" s="44"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>